--- a/Luban/MiniTemplate/Datas/itemConfig.xlsx
+++ b/Luban/MiniTemplate/Datas/itemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowHeight="17800"/>
   </bookViews>
   <sheets>
     <sheet name="ItemRes" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
   <si>
     <t>##var</t>
   </si>
@@ -105,73 +105,76 @@
     <t>高级货币，可用于购买皮肤等等</t>
   </si>
   <si>
+    <t>免广告卡</t>
+  </si>
+  <si>
+    <t>可不用观看广告（一天）</t>
+  </si>
+  <si>
+    <t>玩家AK</t>
+  </si>
+  <si>
+    <t>武器</t>
+  </si>
+  <si>
+    <t>ak</t>
+  </si>
+  <si>
+    <t>玩家聚能枪</t>
+  </si>
+  <si>
+    <t>juneng</t>
+  </si>
+  <si>
+    <t>玩家加特林</t>
+  </si>
+  <si>
+    <t>jiatelin</t>
+  </si>
+  <si>
+    <t>enumId</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>枚举id</t>
+  </si>
+  <si>
+    <t>枚举值</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>物品枚举</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Diamond</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>能量</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>经验</t>
-  </si>
-  <si>
-    <t>用于玩家升级</t>
-  </si>
-  <si>
-    <t>玩家AK</t>
-  </si>
-  <si>
-    <t>武器</t>
-  </si>
-  <si>
-    <t>ak</t>
-  </si>
-  <si>
-    <t>玩家聚能枪</t>
-  </si>
-  <si>
-    <t>juneng</t>
-  </si>
-  <si>
-    <t>玩家加特林</t>
-  </si>
-  <si>
-    <t>jiatelin</t>
-  </si>
-  <si>
-    <t>enumId</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>枚举id</t>
-  </si>
-  <si>
-    <t>枚举值</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>物品枚举</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>Diamond</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>能量</t>
-  </si>
-  <si>
-    <t>Exp</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
   <si>
     <t>Equipment</t>
@@ -193,7 +196,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +230,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -714,137 +723,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -876,12 +885,21 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -890,12 +908,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1172,6 +1184,29 @@
 </styleSheet>
 </file>
 
+<file path=xl/woinfos.xml><?xml version="1.0" encoding="utf-8"?>
+<woInfos xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookInfo cellCmpFml="0">
+    <open main="41" threadCnt="1"/>
+    <sheetInfos>
+      <sheetInfo cellCmpFml="0" sheetStid="1">
+        <open threadCnt="1"/>
+      </sheetInfo>
+      <sheetInfo cellCmpFml="0" sheetStid="2">
+        <open threadCnt="1"/>
+      </sheetInfo>
+    </sheetInfos>
+  </bookInfo>
+</woInfos>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
   <a:themeElements>
@@ -1450,7 +1485,7 @@
       <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="7" t="s">
@@ -1467,16 +1502,16 @@
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -1496,7 +1531,7 @@
       <c r="D3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="17" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="10" t="s">
@@ -1514,7 +1549,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="18" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="3"/>
@@ -1530,7 +1565,7 @@
       <c r="D5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -1550,7 +1585,7 @@
       <c r="D6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -1567,13 +1602,13 @@
       <c r="C7" s="3">
         <v>3</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G7" s="3">
@@ -1584,13 +1619,13 @@
       <c r="B8" s="3">
         <v>501001</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="13">
         <v>5</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -1604,13 +1639,13 @@
       <c r="B9" s="3">
         <v>501002</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="13">
         <v>5</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -1624,13 +1659,13 @@
       <c r="B10" s="3">
         <v>501003</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="13">
         <v>5</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -1641,46 +1676,47 @@
       </c>
     </row>
     <row r="11" s="3" customFormat="1" customHeight="1" spans="2:7">
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
     </row>
     <row r="12" s="3" customFormat="1" customHeight="1" spans="2:7">
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" s="3" customFormat="1" customHeight="1" spans="2:7">
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" s="3" customFormat="1" customHeight="1" spans="2:7">
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
     </row>
     <row r="15" s="3" customFormat="1" customHeight="1" spans="2:7">
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1794,22 +1830,67 @@
         <v>47</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1" customHeight="1" spans="2:4">
       <c r="B9" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <woSheetsProps>
+    <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
+      <cellprotection/>
+      <appEtDbRelations/>
+    </woSheetProps>
+    <woSheetProps sheetStid="2" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
+      <cellprotection/>
+      <appEtDbRelations/>
+    </woSheetProps>
+  </woSheetsProps>
+  <woBookProps>
+    <bookSettings fileId="" isFilterShared="1" coreConquerUserId="" isAutoUpdatePaused="0" filterType="conn" isMergeTasksAutoUpdate="0" isInserPicAsAttachment="0"/>
+  </woBookProps>
+</woProps>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>